--- a/gtac_production_scripts/Documentation/Paper/target_and_reference_vars.xlsx
+++ b/gtac_production_scripts/Documentation/Paper/target_and_reference_vars.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lleatherman\Documents\02_GitHub\gtac-treemap\gtac_production_scripts\Documentation\Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lleatherman\Documents\GitHub\gtac-treemap\gtac_production_scripts\Documentation\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC1669F1-8297-4720-A4E4-7435A42E0780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F7F1B7-474C-4714-B91B-0FA97418D6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="7824" windowHeight="8964" xr2:uid="{9ABC12B6-FD17-4819-9389-03BC3A69DB0C}"/>
+    <workbookView xWindow="72" yWindow="264" windowWidth="23016" windowHeight="12216" xr2:uid="{9ABC12B6-FD17-4819-9389-03BC3A69DB0C}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Target Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -519,17 +519,17 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,17 +543,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -561,7 +561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -569,7 +569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -577,7 +577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -585,7 +585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -593,7 +593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -601,7 +601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -609,7 +609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -620,7 +620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -631,7 +631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -642,7 +642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -653,7 +653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -664,7 +664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -675,7 +675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -686,7 +686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -694,7 +694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -715,7 +715,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
